--- a/Code/Results/Cases/Case_5_90/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_90/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>23.82982049657202</v>
+        <v>19.94943145514285</v>
       </c>
       <c r="C2">
-        <v>17.86045509065901</v>
+        <v>9.864324008596844</v>
       </c>
       <c r="D2">
-        <v>4.337294437521642</v>
+        <v>7.119280444993096</v>
       </c>
       <c r="E2">
-        <v>6.713126887919257</v>
+        <v>9.646071058415391</v>
       </c>
       <c r="F2">
-        <v>34.13566720874636</v>
+        <v>37.38304194697183</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669784106</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I2">
-        <v>22.10618785419812</v>
+        <v>29.55346602580135</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.430936548234217</v>
+        <v>10.27488303849287</v>
       </c>
       <c r="M2">
-        <v>13.77654626026697</v>
+        <v>17.15870100078359</v>
       </c>
       <c r="N2">
-        <v>12.97895762324411</v>
+        <v>19.96945516764762</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.16601126575937</v>
+        <v>19.53062189691072</v>
       </c>
       <c r="C3">
-        <v>16.59778846352479</v>
+        <v>9.279205438660727</v>
       </c>
       <c r="D3">
-        <v>4.438625525801909</v>
+        <v>7.146797519895692</v>
       </c>
       <c r="E3">
-        <v>6.626071999272684</v>
+        <v>9.625757643671816</v>
       </c>
       <c r="F3">
-        <v>32.66393749222011</v>
+        <v>37.18173560654666</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I3">
-        <v>21.66586428861677</v>
+        <v>29.56658138265738</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.343568060143193</v>
+        <v>10.28598448907624</v>
       </c>
       <c r="M3">
-        <v>13.1473882377439</v>
+        <v>17.08375225915534</v>
       </c>
       <c r="N3">
-        <v>13.24127748957183</v>
+        <v>20.03970510188971</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.16845777509354</v>
+        <v>19.27467497848501</v>
       </c>
       <c r="C4">
-        <v>15.78340087918592</v>
+        <v>8.902594012467917</v>
       </c>
       <c r="D4">
-        <v>4.501998146434392</v>
+        <v>7.164480791490681</v>
       </c>
       <c r="E4">
-        <v>6.572667287294255</v>
+        <v>9.613020768527271</v>
       </c>
       <c r="F4">
-        <v>31.76682710456491</v>
+        <v>37.06904591238231</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I4">
-        <v>21.41519081206251</v>
+        <v>29.58179532446457</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.293224656993698</v>
+        <v>10.29436912991389</v>
       </c>
       <c r="M4">
-        <v>12.75595934841708</v>
+        <v>17.04140035155658</v>
       </c>
       <c r="N4">
-        <v>13.40543033843083</v>
+        <v>20.08481043669396</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>20.75196539409977</v>
+        <v>19.17083645641057</v>
       </c>
       <c r="C5">
-        <v>15.44153635528695</v>
+        <v>8.744893272948401</v>
       </c>
       <c r="D5">
-        <v>4.528125104799894</v>
+        <v>7.171885444953934</v>
       </c>
       <c r="E5">
-        <v>6.550896788752207</v>
+        <v>9.607763820629899</v>
       </c>
       <c r="F5">
-        <v>31.4032286827136</v>
+        <v>37.025898950411</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I5">
-        <v>21.31785780784649</v>
+        <v>29.58979024439698</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.273528848332932</v>
+        <v>10.29818027449676</v>
       </c>
       <c r="M5">
-        <v>12.59534526627332</v>
+        <v>17.02507607616613</v>
       </c>
       <c r="N5">
-        <v>13.47313130929091</v>
+        <v>20.10368820845638</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.68220902162821</v>
+        <v>19.15362674653124</v>
       </c>
       <c r="C6">
-        <v>15.3841618030903</v>
+        <v>8.718456267096631</v>
       </c>
       <c r="D6">
-        <v>4.532482060349628</v>
+        <v>7.1731269906108</v>
       </c>
       <c r="E6">
-        <v>6.547280822206784</v>
+        <v>9.606886885084551</v>
       </c>
       <c r="F6">
-        <v>31.34298404274269</v>
+        <v>37.01890283923579</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I6">
-        <v>21.30198275786847</v>
+        <v>29.59122603435729</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.270307553303255</v>
+        <v>10.29883692684895</v>
       </c>
       <c r="M6">
-        <v>12.56861479641508</v>
+        <v>17.02242222061761</v>
       </c>
       <c r="N6">
-        <v>13.48442266318932</v>
+        <v>20.10685290020146</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.16288102525447</v>
+        <v>19.27327249349795</v>
       </c>
       <c r="C7">
-        <v>15.7788310506941</v>
+        <v>8.900484128665443</v>
       </c>
       <c r="D7">
-        <v>4.5023492648282</v>
+        <v>7.164579848556964</v>
       </c>
       <c r="E7">
-        <v>6.572373737941935</v>
+        <v>9.612950141121276</v>
       </c>
       <c r="F7">
-        <v>31.76191497974767</v>
+        <v>37.06845274456721</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I7">
-        <v>21.41385881489886</v>
+        <v>29.58189588660913</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.292955728461235</v>
+        <v>10.29441893178899</v>
       </c>
       <c r="M7">
-        <v>12.75379745128714</v>
+        <v>17.04117639761869</v>
       </c>
       <c r="N7">
-        <v>13.40634006778653</v>
+        <v>20.08506301512488</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.25993654132639</v>
+        <v>19.80487072862391</v>
       </c>
       <c r="C8">
-        <v>17.43310326634367</v>
+        <v>9.666246758341975</v>
       </c>
       <c r="D8">
-        <v>4.372000607138</v>
+        <v>7.128605157179305</v>
       </c>
       <c r="E8">
-        <v>6.683088029977085</v>
+        <v>9.639121801429003</v>
       </c>
       <c r="F8">
-        <v>33.62704159520359</v>
+        <v>37.3113863915969</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I8">
-        <v>21.95020062155626</v>
+        <v>29.55649881818186</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.400120430824298</v>
+        <v>10.27838531863757</v>
       </c>
       <c r="M8">
-        <v>13.56077640495858</v>
+        <v>17.1321054016085</v>
       </c>
       <c r="N8">
-        <v>13.06878354949592</v>
+        <v>19.99326887228443</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.18112350032872</v>
+        <v>20.85005655740153</v>
       </c>
       <c r="C9">
-        <v>20.37473223145669</v>
+        <v>11.04298256727099</v>
       </c>
       <c r="D9">
-        <v>4.1250550162805</v>
+        <v>7.064285177218053</v>
       </c>
       <c r="E9">
-        <v>6.901597211981245</v>
+        <v>9.688352488207929</v>
       </c>
       <c r="F9">
-        <v>37.32513019455577</v>
+        <v>37.8727963831178</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I9">
-        <v>23.1639374251195</v>
+        <v>29.56372884662326</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.636951854418694</v>
+        <v>10.25938689211187</v>
       </c>
       <c r="M9">
-        <v>15.0962622065127</v>
+        <v>17.33891387664097</v>
       </c>
       <c r="N9">
-        <v>12.42991429611065</v>
+        <v>19.82884798053212</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.82728274965428</v>
+        <v>21.61080840404817</v>
       </c>
       <c r="C10">
-        <v>22.36361149588473</v>
+        <v>12.02505508147887</v>
       </c>
       <c r="D10">
-        <v>3.948315023580996</v>
+        <v>7.020791527676787</v>
       </c>
       <c r="E10">
-        <v>7.064669352550252</v>
+        <v>9.723257075612759</v>
       </c>
       <c r="F10">
-        <v>40.0577303199512</v>
+        <v>38.33468505712664</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I10">
-        <v>24.16261829610194</v>
+        <v>29.60404877431933</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>6.827973663787064</v>
+        <v>10.25301170929248</v>
       </c>
       <c r="M10">
-        <v>16.52088958620772</v>
+        <v>17.5073530962333</v>
       </c>
       <c r="N10">
-        <v>11.97265094816563</v>
+        <v>19.71746922808123</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.98317770057907</v>
+        <v>21.95360272834502</v>
       </c>
       <c r="C11">
-        <v>23.23397967031157</v>
+        <v>12.44626122269932</v>
       </c>
       <c r="D11">
-        <v>3.868849206419404</v>
+        <v>7.001815042190892</v>
       </c>
       <c r="E11">
-        <v>7.139864268013349</v>
+        <v>9.738863542812561</v>
       </c>
       <c r="F11">
-        <v>41.30419995959515</v>
+        <v>38.55494336143999</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I11">
-        <v>24.64215585564049</v>
+        <v>29.63002401485448</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>6.918772585900136</v>
+        <v>10.25175595347936</v>
       </c>
       <c r="M11">
-        <v>17.15490891516187</v>
+        <v>17.58735445500433</v>
       </c>
       <c r="N11">
-        <v>11.76685930251541</v>
+        <v>19.66882873274604</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.41429937820662</v>
+        <v>22.08280422908948</v>
       </c>
       <c r="C12">
-        <v>23.55890192782176</v>
+        <v>12.60210883532569</v>
       </c>
       <c r="D12">
-        <v>3.838890948516757</v>
+        <v>6.994744973427484</v>
       </c>
       <c r="E12">
-        <v>7.168530320237225</v>
+        <v>9.744734325829187</v>
       </c>
       <c r="F12">
-        <v>41.77682225341006</v>
+        <v>38.63975215803095</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I12">
-        <v>24.82756372015025</v>
+        <v>29.64095854831385</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>6.953737425787926</v>
+        <v>10.25151654102807</v>
       </c>
       <c r="M12">
-        <v>17.39130828737839</v>
+        <v>17.61811555998526</v>
       </c>
       <c r="N12">
-        <v>11.68922153778046</v>
+        <v>19.65069999959346</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.32173767113822</v>
+        <v>22.05500746367288</v>
       </c>
       <c r="C13">
-        <v>23.48912692263195</v>
+        <v>12.56870647260056</v>
       </c>
       <c r="D13">
-        <v>3.845336994815366</v>
+        <v>6.996262490436296</v>
       </c>
       <c r="E13">
-        <v>7.162347248961405</v>
+        <v>9.743471683755631</v>
       </c>
       <c r="F13">
-        <v>41.67500423946047</v>
+        <v>38.62142565934115</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I13">
-        <v>24.78745968137947</v>
+        <v>29.63855475674452</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>6.946180900749141</v>
+        <v>10.25155760782636</v>
       </c>
       <c r="M13">
-        <v>17.340556595127</v>
+        <v>17.61147018239839</v>
       </c>
       <c r="N13">
-        <v>11.7059296802114</v>
+        <v>19.65459144828034</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.0187766184064</v>
+        <v>21.96424513507431</v>
       </c>
       <c r="C14">
-        <v>23.26080305640421</v>
+        <v>12.45915602205463</v>
       </c>
       <c r="D14">
-        <v>3.866381825314262</v>
+        <v>7.001231062635514</v>
       </c>
       <c r="E14">
-        <v>7.142218516085499</v>
+        <v>9.739347318028562</v>
       </c>
       <c r="F14">
-        <v>41.34306952504267</v>
+        <v>38.56189287504408</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I14">
-        <v>24.65733176847763</v>
+        <v>29.63090159487043</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>6.921637383555276</v>
+        <v>10.25173152702725</v>
       </c>
       <c r="M14">
-        <v>17.17443052384773</v>
+        <v>17.58987595749124</v>
       </c>
       <c r="N14">
-        <v>11.76046631085762</v>
+        <v>19.66733145726879</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.83235524058933</v>
+        <v>21.90856760135151</v>
       </c>
       <c r="C15">
-        <v>23.1203490517106</v>
+        <v>12.39157791446598</v>
       </c>
       <c r="D15">
-        <v>3.879289885873352</v>
+        <v>7.00428953983904</v>
       </c>
       <c r="E15">
-        <v>7.129915498541084</v>
+        <v>9.736815940866451</v>
       </c>
       <c r="F15">
-        <v>41.13983509565288</v>
+        <v>38.52560813789233</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I15">
-        <v>24.57812795518074</v>
+        <v>29.62635683922865</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>6.906680141742882</v>
+        <v>10.25186879515734</v>
       </c>
       <c r="M15">
-        <v>17.07219844117737</v>
+        <v>17.57670901235885</v>
       </c>
       <c r="N15">
-        <v>11.79390870699114</v>
+        <v>19.67517286544607</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.75080329767771</v>
+        <v>21.58832824136612</v>
       </c>
       <c r="C16">
-        <v>22.3060619682281</v>
+        <v>11.99701590326107</v>
       </c>
       <c r="D16">
-        <v>3.953526922990298</v>
+        <v>7.022047928678587</v>
       </c>
       <c r="E16">
-        <v>7.059779303419231</v>
+        <v>9.722231690195063</v>
       </c>
       <c r="F16">
-        <v>39.97634692341396</v>
+        <v>38.32048997809498</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I16">
-        <v>24.13180259153896</v>
+        <v>29.60250491093582</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>6.822119884590381</v>
+        <v>10.25312683722682</v>
       </c>
       <c r="M16">
-        <v>16.47892869261933</v>
+        <v>17.50219114784126</v>
       </c>
       <c r="N16">
-        <v>11.9861420972439</v>
+        <v>19.72068868578458</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.07524404458099</v>
+        <v>21.39093328189137</v>
       </c>
       <c r="C17">
-        <v>21.79790416429317</v>
+        <v>11.74843618757464</v>
       </c>
       <c r="D17">
-        <v>3.999306110881548</v>
+        <v>7.033149026883363</v>
       </c>
       <c r="E17">
-        <v>7.017042590190448</v>
+        <v>9.713215137276832</v>
       </c>
       <c r="F17">
-        <v>39.26350725213618</v>
+        <v>38.19721508169564</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I17">
-        <v>23.86458425943896</v>
+        <v>29.58982839921149</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>6.771257342296863</v>
+        <v>10.25431954699086</v>
       </c>
       <c r="M17">
-        <v>16.10821306983188</v>
+        <v>17.45732840890877</v>
       </c>
       <c r="N17">
-        <v>12.10461850361829</v>
+        <v>19.74912941739431</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.68215613189003</v>
+        <v>21.27709625699113</v>
       </c>
       <c r="C18">
-        <v>21.50237062233231</v>
+        <v>11.60305428601886</v>
       </c>
       <c r="D18">
-        <v>4.025724777896667</v>
+        <v>7.039610255608826</v>
       </c>
       <c r="E18">
-        <v>6.992553717518401</v>
+        <v>9.708003468975665</v>
       </c>
       <c r="F18">
-        <v>38.85380643479296</v>
+        <v>38.12726892600399</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I18">
-        <v>23.71324950875516</v>
+        <v>29.58325573837214</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>6.742368412488813</v>
+        <v>10.25516036156645</v>
       </c>
       <c r="M18">
-        <v>15.89244681753111</v>
+        <v>17.43184366983732</v>
       </c>
       <c r="N18">
-        <v>12.17297345233369</v>
+        <v>19.7656785538697</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.54827806184304</v>
+        <v>21.23850564323893</v>
       </c>
       <c r="C19">
-        <v>21.40174113103052</v>
+        <v>11.55341675516557</v>
       </c>
       <c r="D19">
-        <v>4.034684849648379</v>
+        <v>7.041811011914248</v>
       </c>
       <c r="E19">
-        <v>6.984276760700932</v>
+        <v>9.706234492093198</v>
       </c>
       <c r="F19">
-        <v>38.71513933281114</v>
+        <v>38.10375262649178</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I19">
-        <v>23.66241059630391</v>
+        <v>29.58115372195601</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>6.732649409457604</v>
+        <v>10.25547164284378</v>
       </c>
       <c r="M19">
-        <v>15.8189507544315</v>
+        <v>17.42327036058393</v>
       </c>
       <c r="N19">
-        <v>12.19615432221008</v>
+        <v>19.77131460473426</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.14762472294441</v>
+        <v>21.41197844328621</v>
       </c>
       <c r="C20">
-        <v>21.85233336489149</v>
+        <v>11.77514673616277</v>
       </c>
       <c r="D20">
-        <v>3.994423784400848</v>
+        <v>7.031959415721318</v>
       </c>
       <c r="E20">
-        <v>7.021582141248086</v>
+        <v>9.714177612445662</v>
       </c>
       <c r="F20">
-        <v>39.33935807387431</v>
+        <v>38.21023912526167</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I20">
-        <v>23.89278436096565</v>
+        <v>29.59110346247987</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>6.776633749688993</v>
+        <v>10.25417656204046</v>
       </c>
       <c r="M20">
-        <v>16.14793810615827</v>
+        <v>17.46207123375724</v>
       </c>
       <c r="N20">
-        <v>12.09198492196353</v>
+        <v>19.74608211533769</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.10793997504524</v>
+        <v>21.9909217568994</v>
       </c>
       <c r="C21">
-        <v>23.32799160956092</v>
+        <v>12.49143266157373</v>
       </c>
       <c r="D21">
-        <v>3.860196795275825</v>
+        <v>6.999768529929234</v>
       </c>
       <c r="E21">
-        <v>7.148125215613413</v>
+        <v>9.740559803674145</v>
       </c>
       <c r="F21">
-        <v>41.44054866937677</v>
+        <v>38.57934152134627</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I21">
-        <v>24.69544822137398</v>
+        <v>29.6331197077568</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>6.928830451327964</v>
+        <v>10.2516740377813</v>
       </c>
       <c r="M21">
-        <v>17.22332444417683</v>
+        <v>17.59620620709446</v>
       </c>
       <c r="N21">
-        <v>11.74443988599821</v>
+        <v>19.66358153524597</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.35086855061675</v>
+        <v>22.36569777553004</v>
       </c>
       <c r="C22">
-        <v>24.26536827840839</v>
+        <v>12.93827738187672</v>
       </c>
       <c r="D22">
-        <v>3.773255469337357</v>
+        <v>6.979405377324428</v>
       </c>
       <c r="E22">
-        <v>7.23197102719942</v>
+        <v>9.757574507535207</v>
       </c>
       <c r="F22">
-        <v>42.81750033589798</v>
+        <v>38.82871335967624</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I22">
-        <v>25.24239905435895</v>
+        <v>29.66698085763245</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>7.031700660584191</v>
+        <v>10.25141453438906</v>
       </c>
       <c r="M22">
-        <v>17.90473846508259</v>
+        <v>17.68657974582427</v>
       </c>
       <c r="N22">
-        <v>11.51898578264148</v>
+        <v>19.61135466515732</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.69088734524093</v>
+        <v>22.16604472968869</v>
       </c>
       <c r="C23">
-        <v>23.76744758152085</v>
+        <v>12.70172963422835</v>
       </c>
       <c r="D23">
-        <v>3.819584555106342</v>
+        <v>6.990211906318808</v>
       </c>
       <c r="E23">
-        <v>7.187099160535694</v>
+        <v>9.748514252249324</v>
       </c>
       <c r="F23">
-        <v>42.08218629384417</v>
+        <v>38.69489344855867</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I23">
-        <v>24.94836350224756</v>
+        <v>29.64832290248382</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>6.97647782113401</v>
+        <v>10.25142726280296</v>
       </c>
       <c r="M23">
-        <v>17.54295175615721</v>
+        <v>17.63810445112109</v>
       </c>
       <c r="N23">
-        <v>11.63916874251971</v>
+        <v>19.63907463481921</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.11491607887458</v>
+        <v>21.40246501189595</v>
       </c>
       <c r="C24">
-        <v>21.82773649307265</v>
+        <v>11.76307859244121</v>
       </c>
       <c r="D24">
-        <v>3.996630773841976</v>
+        <v>7.032496992643223</v>
       </c>
       <c r="E24">
-        <v>7.019529561159629</v>
+        <v>9.713742564426331</v>
       </c>
       <c r="F24">
-        <v>39.30506555078008</v>
+        <v>38.20434806591619</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I24">
-        <v>23.8800279678779</v>
+        <v>29.59052477863699</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>6.774201979021025</v>
+        <v>10.25424072237943</v>
       </c>
       <c r="M24">
-        <v>16.12998664347356</v>
+        <v>17.45992604355642</v>
       </c>
       <c r="N24">
-        <v>12.09769581050741</v>
+        <v>19.74745918323168</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.16248753974033</v>
+        <v>20.56794662244408</v>
       </c>
       <c r="C25">
-        <v>19.6101431706995</v>
+        <v>10.67371753636325</v>
       </c>
       <c r="D25">
-        <v>4.190999793362097</v>
+        <v>7.081022366869359</v>
       </c>
       <c r="E25">
-        <v>6.842176740568632</v>
+        <v>9.675257170029759</v>
       </c>
       <c r="F25">
-        <v>36.32161517449338</v>
+        <v>37.71205026245645</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I25">
-        <v>22.81742444783814</v>
+        <v>29.55563854795122</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.569952888168909</v>
+        <v>10.26319430073802</v>
       </c>
       <c r="M25">
-        <v>14.68664859998973</v>
+        <v>17.28000198889912</v>
       </c>
       <c r="N25">
-        <v>12.60047818763401</v>
+        <v>19.87166793027212</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_90/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_90/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.94943145514285</v>
+        <v>23.82982049657202</v>
       </c>
       <c r="C2">
-        <v>9.864324008596844</v>
+        <v>17.86045509065924</v>
       </c>
       <c r="D2">
-        <v>7.119280444993096</v>
+        <v>4.337294437521655</v>
       </c>
       <c r="E2">
-        <v>9.646071058415391</v>
+        <v>6.713126887919383</v>
       </c>
       <c r="F2">
-        <v>37.38304194697183</v>
+        <v>34.13566720874638</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.344005520526261</v>
+        <v>4.251792669784106</v>
       </c>
       <c r="I2">
-        <v>29.55346602580135</v>
+        <v>22.10618785419817</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>10.27488303849287</v>
+        <v>6.430936548234254</v>
       </c>
       <c r="M2">
-        <v>17.15870100078359</v>
+        <v>13.77654626026698</v>
       </c>
       <c r="N2">
-        <v>19.96945516764762</v>
+        <v>12.97895762324411</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.53062189691072</v>
+        <v>22.16601126575937</v>
       </c>
       <c r="C3">
-        <v>9.279205438660727</v>
+        <v>16.59778846352467</v>
       </c>
       <c r="D3">
-        <v>7.146797519895692</v>
+        <v>4.438625525801779</v>
       </c>
       <c r="E3">
-        <v>9.625757643671816</v>
+        <v>6.626071999272614</v>
       </c>
       <c r="F3">
-        <v>37.18173560654666</v>
+        <v>32.66393749222009</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
-        <v>29.56658138265738</v>
+        <v>21.66586428861679</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>10.28598448907624</v>
+        <v>6.343568060143159</v>
       </c>
       <c r="M3">
-        <v>17.08375225915534</v>
+        <v>13.1473882377439</v>
       </c>
       <c r="N3">
-        <v>20.03970510188971</v>
+        <v>13.24127748957182</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.27467497848501</v>
+        <v>21.16845777509355</v>
       </c>
       <c r="C4">
-        <v>8.902594012467917</v>
+        <v>15.78340087918607</v>
       </c>
       <c r="D4">
-        <v>7.164480791490681</v>
+        <v>4.501998146434453</v>
       </c>
       <c r="E4">
-        <v>9.613020768527271</v>
+        <v>6.572667287294322</v>
       </c>
       <c r="F4">
-        <v>37.06904591238231</v>
+        <v>31.76682710456492</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
-        <v>29.58179532446457</v>
+        <v>21.41519081206258</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>10.29436912991389</v>
+        <v>6.293224656993671</v>
       </c>
       <c r="M4">
-        <v>17.04140035155658</v>
+        <v>12.7559593484171</v>
       </c>
       <c r="N4">
-        <v>20.08481043669396</v>
+        <v>13.40543033843077</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.17083645641057</v>
+        <v>20.75196539409977</v>
       </c>
       <c r="C5">
-        <v>8.744893272948401</v>
+        <v>15.44153635528702</v>
       </c>
       <c r="D5">
-        <v>7.171885444953934</v>
+        <v>4.528125104799897</v>
       </c>
       <c r="E5">
-        <v>9.607763820629899</v>
+        <v>6.550896788752077</v>
       </c>
       <c r="F5">
-        <v>37.025898950411</v>
+        <v>31.40322868271346</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
-        <v>29.58979024439698</v>
+        <v>21.31785780784636</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>10.29818027449676</v>
+        <v>6.273528848332814</v>
       </c>
       <c r="M5">
-        <v>17.02507607616613</v>
+        <v>12.59534526627324</v>
       </c>
       <c r="N5">
-        <v>20.10368820845638</v>
+        <v>13.47313130929082</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.15362674653124</v>
+        <v>20.68220902162823</v>
       </c>
       <c r="C6">
-        <v>8.718456267096631</v>
+        <v>15.38416180309009</v>
       </c>
       <c r="D6">
-        <v>7.1731269906108</v>
+        <v>4.532482060349762</v>
       </c>
       <c r="E6">
-        <v>9.606886885084551</v>
+        <v>6.547280822206718</v>
       </c>
       <c r="F6">
-        <v>37.01890283923579</v>
+        <v>31.34298404274285</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
-        <v>29.59122603435729</v>
+        <v>21.30198275786858</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>10.29883692684895</v>
+        <v>6.270307553303277</v>
       </c>
       <c r="M6">
-        <v>17.02242222061761</v>
+        <v>12.5686147964151</v>
       </c>
       <c r="N6">
-        <v>20.10685290020146</v>
+        <v>13.4844226631894</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.27327249349795</v>
+        <v>21.1628810252545</v>
       </c>
       <c r="C7">
-        <v>8.900484128665443</v>
+        <v>15.77883105069427</v>
       </c>
       <c r="D7">
-        <v>7.164579848556964</v>
+        <v>4.502349264828207</v>
       </c>
       <c r="E7">
-        <v>9.612950141121276</v>
+        <v>6.572373737942002</v>
       </c>
       <c r="F7">
-        <v>37.06845274456721</v>
+        <v>31.76191497974767</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
-        <v>29.58189588660913</v>
+        <v>21.41385881489892</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>10.29441893178899</v>
+        <v>6.29295572846121</v>
       </c>
       <c r="M7">
-        <v>17.04117639761869</v>
+        <v>12.75379745128713</v>
       </c>
       <c r="N7">
-        <v>20.08506301512488</v>
+        <v>13.40634006778648</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.80487072862391</v>
+        <v>23.25993654132636</v>
       </c>
       <c r="C8">
-        <v>9.666246758341975</v>
+        <v>17.43310326634339</v>
       </c>
       <c r="D8">
-        <v>7.128605157179305</v>
+        <v>4.37200060713819</v>
       </c>
       <c r="E8">
-        <v>9.639121801429003</v>
+        <v>6.68308802997689</v>
       </c>
       <c r="F8">
-        <v>37.3113863915969</v>
+        <v>33.62704159520379</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
-        <v>29.55649881818186</v>
+        <v>21.95020062155646</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>10.27838531863757</v>
+        <v>6.400120430824289</v>
       </c>
       <c r="M8">
-        <v>17.1321054016085</v>
+        <v>13.5607764049586</v>
       </c>
       <c r="N8">
-        <v>19.99326887228443</v>
+        <v>13.06878354949605</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.85005655740153</v>
+        <v>27.18112350032873</v>
       </c>
       <c r="C9">
-        <v>11.04298256727099</v>
+        <v>20.37473223145661</v>
       </c>
       <c r="D9">
-        <v>7.064285177218053</v>
+        <v>4.125055016280625</v>
       </c>
       <c r="E9">
-        <v>9.688352488207929</v>
+        <v>6.901597211981178</v>
       </c>
       <c r="F9">
-        <v>37.8727963831178</v>
+        <v>37.32513019455575</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
-        <v>29.56372884662326</v>
+        <v>23.16393742511947</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>10.25938689211187</v>
+        <v>6.636951854418715</v>
       </c>
       <c r="M9">
-        <v>17.33891387664097</v>
+        <v>15.0962622065127</v>
       </c>
       <c r="N9">
-        <v>19.82884798053212</v>
+        <v>12.42991429611056</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.61080840404817</v>
+        <v>29.82728274965421</v>
       </c>
       <c r="C10">
-        <v>12.02505508147887</v>
+        <v>22.36361149588479</v>
       </c>
       <c r="D10">
-        <v>7.020791527676787</v>
+        <v>3.94831502358107</v>
       </c>
       <c r="E10">
-        <v>9.723257075612759</v>
+        <v>7.064669352550316</v>
       </c>
       <c r="F10">
-        <v>38.33468505712664</v>
+        <v>40.05773031995115</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
-        <v>29.60404877431933</v>
+        <v>24.16261829610199</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10.25301170929248</v>
+        <v>6.827973663787066</v>
       </c>
       <c r="M10">
-        <v>17.5073530962333</v>
+        <v>16.52088958620769</v>
       </c>
       <c r="N10">
-        <v>19.71746922808123</v>
+        <v>11.97265094816569</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>21.95360272834502</v>
+        <v>30.98317770057898</v>
       </c>
       <c r="C11">
-        <v>12.44626122269932</v>
+        <v>23.23397967031151</v>
       </c>
       <c r="D11">
-        <v>7.001815042190892</v>
+        <v>3.868849206419339</v>
       </c>
       <c r="E11">
-        <v>9.738863542812561</v>
+        <v>7.13986426801321</v>
       </c>
       <c r="F11">
-        <v>38.55494336143999</v>
+        <v>41.30419995959517</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
-        <v>29.63002401485448</v>
+        <v>24.6421558556406</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10.25175595347936</v>
+        <v>6.918772585900099</v>
       </c>
       <c r="M11">
-        <v>17.58735445500433</v>
+        <v>17.15490891516185</v>
       </c>
       <c r="N11">
-        <v>19.66882873274604</v>
+        <v>11.76685930251551</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22.08280422908948</v>
+        <v>31.4142993782067</v>
       </c>
       <c r="C12">
-        <v>12.60210883532569</v>
+        <v>23.55890192782175</v>
       </c>
       <c r="D12">
-        <v>6.994744973427484</v>
+        <v>3.838890948516636</v>
       </c>
       <c r="E12">
-        <v>9.744734325829187</v>
+        <v>7.168530320237217</v>
       </c>
       <c r="F12">
-        <v>38.63975215803095</v>
+        <v>41.77682225341012</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
-        <v>29.64095854831385</v>
+        <v>24.82756372015024</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.25151654102807</v>
+        <v>6.953737425787959</v>
       </c>
       <c r="M12">
-        <v>17.61811555998526</v>
+        <v>17.39130828737844</v>
       </c>
       <c r="N12">
-        <v>19.65069999959346</v>
+        <v>11.68922153778044</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.05500746367288</v>
+        <v>31.32173767113815</v>
       </c>
       <c r="C13">
-        <v>12.56870647260056</v>
+        <v>23.4891269226318</v>
       </c>
       <c r="D13">
-        <v>6.996262490436296</v>
+        <v>3.845336994815374</v>
       </c>
       <c r="E13">
-        <v>9.743471683755631</v>
+        <v>7.162347248961535</v>
       </c>
       <c r="F13">
-        <v>38.62142565934115</v>
+        <v>41.67500423946041</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
-        <v>29.63855475674452</v>
+        <v>24.78745968137949</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.25155760782636</v>
+        <v>6.946180900749178</v>
       </c>
       <c r="M13">
-        <v>17.61147018239839</v>
+        <v>17.34055659512693</v>
       </c>
       <c r="N13">
-        <v>19.65459144828034</v>
+        <v>11.70592968021145</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>21.96424513507431</v>
+        <v>31.01877661840635</v>
       </c>
       <c r="C14">
-        <v>12.45915602205463</v>
+        <v>23.26080305640412</v>
       </c>
       <c r="D14">
-        <v>7.001231062635514</v>
+        <v>3.866381825314323</v>
       </c>
       <c r="E14">
-        <v>9.739347318028562</v>
+        <v>7.142218516085494</v>
       </c>
       <c r="F14">
-        <v>38.56189287504408</v>
+        <v>41.34306952504269</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
-        <v>29.63090159487043</v>
+        <v>24.65733176847771</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10.25173152702725</v>
+        <v>6.921637383555339</v>
       </c>
       <c r="M14">
-        <v>17.58987595749124</v>
+        <v>17.17443052384769</v>
       </c>
       <c r="N14">
-        <v>19.66733145726879</v>
+        <v>11.76046631085771</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21.90856760135151</v>
+        <v>30.83235524058935</v>
       </c>
       <c r="C15">
-        <v>12.39157791446598</v>
+        <v>23.12034905171076</v>
       </c>
       <c r="D15">
-        <v>7.00428953983904</v>
+        <v>3.879289885873415</v>
       </c>
       <c r="E15">
-        <v>9.736815940866451</v>
+        <v>7.129915498541154</v>
       </c>
       <c r="F15">
-        <v>38.52560813789233</v>
+        <v>41.13983509565288</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
-        <v>29.62635683922865</v>
+        <v>24.57812795518074</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10.25186879515734</v>
+        <v>6.90668014174283</v>
       </c>
       <c r="M15">
-        <v>17.57670901235885</v>
+        <v>17.0721984411774</v>
       </c>
       <c r="N15">
-        <v>19.67517286544607</v>
+        <v>11.79390870699112</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.58832824136612</v>
+        <v>29.75080329767787</v>
       </c>
       <c r="C16">
-        <v>11.99701590326107</v>
+        <v>22.30606196822803</v>
       </c>
       <c r="D16">
-        <v>7.022047928678587</v>
+        <v>3.953526922990473</v>
       </c>
       <c r="E16">
-        <v>9.722231690195063</v>
+        <v>7.059779303419297</v>
       </c>
       <c r="F16">
-        <v>38.32048997809498</v>
+        <v>39.97634692341405</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
-        <v>29.60250491093582</v>
+        <v>24.13180259153895</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10.25312683722682</v>
+        <v>6.82211988459041</v>
       </c>
       <c r="M16">
-        <v>17.50219114784126</v>
+        <v>16.47892869261938</v>
       </c>
       <c r="N16">
-        <v>19.72068868578458</v>
+        <v>11.98614209724389</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.39093328189137</v>
+        <v>29.07524404458095</v>
       </c>
       <c r="C17">
-        <v>11.74843618757464</v>
+        <v>21.7979041642931</v>
       </c>
       <c r="D17">
-        <v>7.033149026883363</v>
+        <v>3.999306110881505</v>
       </c>
       <c r="E17">
-        <v>9.713215137276832</v>
+        <v>7.017042590190448</v>
       </c>
       <c r="F17">
-        <v>38.19721508169564</v>
+        <v>39.26350725213627</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
-        <v>29.58982839921149</v>
+        <v>23.86458425943908</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.25431954699086</v>
+        <v>6.771257342296908</v>
       </c>
       <c r="M17">
-        <v>17.45732840890877</v>
+        <v>16.10821306983183</v>
       </c>
       <c r="N17">
-        <v>19.74912941739431</v>
+        <v>12.10461850361835</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.27709625699113</v>
+        <v>28.68215613189011</v>
       </c>
       <c r="C18">
-        <v>11.60305428601886</v>
+        <v>21.50237062233224</v>
       </c>
       <c r="D18">
-        <v>7.039610255608826</v>
+        <v>4.025724777896798</v>
       </c>
       <c r="E18">
-        <v>9.708003468975665</v>
+        <v>6.992553717518401</v>
       </c>
       <c r="F18">
-        <v>38.12726892600399</v>
+        <v>38.853806434793</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
-        <v>29.58325573837214</v>
+        <v>23.71324950875513</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.25516036156645</v>
+        <v>6.742368412488791</v>
       </c>
       <c r="M18">
-        <v>17.43184366983732</v>
+        <v>15.89244681753118</v>
       </c>
       <c r="N18">
-        <v>19.7656785538697</v>
+        <v>12.1729734523336</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.23850564323893</v>
+        <v>28.54827806184307</v>
       </c>
       <c r="C19">
-        <v>11.55341675516557</v>
+        <v>21.40174113103056</v>
       </c>
       <c r="D19">
-        <v>7.041811011914248</v>
+        <v>4.034684849648444</v>
       </c>
       <c r="E19">
-        <v>9.706234492093198</v>
+        <v>6.984276760700929</v>
       </c>
       <c r="F19">
-        <v>38.10375262649178</v>
+        <v>38.71513933281121</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
-        <v>29.58115372195601</v>
+        <v>23.6624105963039</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.25547164284378</v>
+        <v>6.732649409457612</v>
       </c>
       <c r="M19">
-        <v>17.42327036058393</v>
+        <v>15.81895075443152</v>
       </c>
       <c r="N19">
-        <v>19.77131460473426</v>
+        <v>12.19615432221003</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.41197844328621</v>
+        <v>29.14762472294454</v>
       </c>
       <c r="C20">
-        <v>11.77514673616277</v>
+        <v>21.85233336489161</v>
       </c>
       <c r="D20">
-        <v>7.031959415721318</v>
+        <v>3.994423784400547</v>
       </c>
       <c r="E20">
-        <v>9.714177612445662</v>
+        <v>7.021582141248215</v>
       </c>
       <c r="F20">
-        <v>38.21023912526167</v>
+        <v>39.33935807387439</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
-        <v>29.59110346247987</v>
+        <v>23.89278436096562</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.25417656204046</v>
+        <v>6.776633749689045</v>
       </c>
       <c r="M20">
-        <v>17.46207123375724</v>
+        <v>16.14793810615832</v>
       </c>
       <c r="N20">
-        <v>19.74608211533769</v>
+        <v>12.09198492196345</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>21.9909217568994</v>
+        <v>31.10793997504536</v>
       </c>
       <c r="C21">
-        <v>12.49143266157373</v>
+        <v>23.32799160956105</v>
       </c>
       <c r="D21">
-        <v>6.999768529929234</v>
+        <v>3.860196795275846</v>
       </c>
       <c r="E21">
-        <v>9.740559803674145</v>
+        <v>7.148125215613349</v>
       </c>
       <c r="F21">
-        <v>38.57934152134627</v>
+        <v>41.44054866937676</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
-        <v>29.6331197077568</v>
+        <v>24.69544822137388</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.2516740377813</v>
+        <v>6.92883045132791</v>
       </c>
       <c r="M21">
-        <v>17.59620620709446</v>
+        <v>17.22332444417694</v>
       </c>
       <c r="N21">
-        <v>19.66358153524597</v>
+        <v>11.74443988599803</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>22.36569777553004</v>
+        <v>32.35086855061674</v>
       </c>
       <c r="C22">
-        <v>12.93827738187672</v>
+        <v>24.26536827840814</v>
       </c>
       <c r="D22">
-        <v>6.979405377324428</v>
+        <v>3.773255469337486</v>
       </c>
       <c r="E22">
-        <v>9.757574507535207</v>
+        <v>7.231971027199356</v>
       </c>
       <c r="F22">
-        <v>38.82871335967624</v>
+        <v>42.81750033589802</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
-        <v>29.66698085763245</v>
+        <v>25.24239905435901</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.25141453438906</v>
+        <v>7.031700660584223</v>
       </c>
       <c r="M22">
-        <v>17.68657974582427</v>
+        <v>17.90473846508257</v>
       </c>
       <c r="N22">
-        <v>19.61135466515732</v>
+        <v>11.51898578264158</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>22.16604472968869</v>
+        <v>31.69088734524102</v>
       </c>
       <c r="C23">
-        <v>12.70172963422835</v>
+        <v>23.76744758152106</v>
       </c>
       <c r="D23">
-        <v>6.990211906318808</v>
+        <v>3.819584555106274</v>
       </c>
       <c r="E23">
-        <v>9.748514252249324</v>
+        <v>7.187099160535886</v>
       </c>
       <c r="F23">
-        <v>38.69489344855867</v>
+        <v>42.08218629384422</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
-        <v>29.64832290248382</v>
+        <v>24.94836350224751</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.25142726280296</v>
+        <v>6.976477821134022</v>
       </c>
       <c r="M23">
-        <v>17.63810445112109</v>
+        <v>17.54295175615727</v>
       </c>
       <c r="N23">
-        <v>19.63907463481921</v>
+        <v>11.63916874251963</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.40246501189595</v>
+        <v>29.11491607887474</v>
       </c>
       <c r="C24">
-        <v>11.76307859244121</v>
+        <v>21.82773649307276</v>
       </c>
       <c r="D24">
-        <v>7.032496992643223</v>
+        <v>3.996630773841864</v>
       </c>
       <c r="E24">
-        <v>9.713742564426331</v>
+        <v>7.019529561159954</v>
       </c>
       <c r="F24">
-        <v>38.20434806591619</v>
+        <v>39.30506555078011</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
-        <v>29.59052477863699</v>
+        <v>23.88002796787781</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.25424072237943</v>
+        <v>6.774201979021102</v>
       </c>
       <c r="M24">
-        <v>17.45992604355642</v>
+        <v>16.12998664347361</v>
       </c>
       <c r="N24">
-        <v>19.74745918323168</v>
+        <v>12.09769581050723</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.56794662244408</v>
+        <v>26.16248753974034</v>
       </c>
       <c r="C25">
-        <v>10.67371753636325</v>
+        <v>19.6101431706993</v>
       </c>
       <c r="D25">
-        <v>7.081022366869359</v>
+        <v>4.190999793362148</v>
       </c>
       <c r="E25">
-        <v>9.675257170029759</v>
+        <v>6.842176740568494</v>
       </c>
       <c r="F25">
-        <v>37.71205026245645</v>
+        <v>36.32161517449343</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
-        <v>29.55563854795122</v>
+        <v>22.81742444783815</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>10.26319430073802</v>
+        <v>6.569952888168909</v>
       </c>
       <c r="M25">
-        <v>17.28000198889912</v>
+        <v>14.68664859998973</v>
       </c>
       <c r="N25">
-        <v>19.87166793027212</v>
+        <v>12.60047818763402</v>
       </c>
       <c r="O25">
         <v>0</v>
